--- a/tests/test1/d10/ЛМ, 0.5.xlsx
+++ b/tests/test1/d10/ЛМ, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
         <v>359.8882963039174</v>
       </c>
       <c r="F2" t="n">
-        <v>10.13385441570156</v>
+        <v>10.13385441570155</v>
       </c>
       <c r="G2" t="n">
         <v>98.87589145744209</v>
@@ -615,22 +615,22 @@
         <v>16.09201388165901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01453919245408228</v>
+        <v>0.01453919245408071</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2085034966710737</v>
+        <v>0.2085034966710157</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3303104662515862</v>
+        <v>0.330310466251496</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07852750940761637</v>
+        <v>0.07852750940759666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.249753338713075</v>
+        <v>0.2497533387130751</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1152293055165509</v>
+        <v>0.1152293055165494</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004423099999996793</v>
+        <v>0.00364429999999949</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,7 +664,7 @@
         <v>0.02711326503991647</v>
       </c>
       <c r="F3" t="n">
-        <v>9.830303706214838</v>
+        <v>9.830303706214837</v>
       </c>
       <c r="G3" t="n">
         <v>74.88182248631469</v>
@@ -694,25 +694,25 @@
         <v>53.08272866968613</v>
       </c>
       <c r="P3" t="n">
-        <v>17.92844585666533</v>
+        <v>17.92844585666532</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01380419785901149</v>
+        <v>0.01380419785901154</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1515811242224016</v>
+        <v>0.1515811242223943</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2430115675973279</v>
+        <v>0.2430115675973189</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05677925549936476</v>
+        <v>0.05677925549936502</v>
       </c>
       <c r="U3" t="n">
         <v>0.2485255141753749</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1253923199402213</v>
+        <v>0.1253923199402223</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002953599999997891</v>
+        <v>0.002268300000000778</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -749,10 +749,10 @@
         <v>10.03735582277761</v>
       </c>
       <c r="G4" t="n">
-        <v>80.04466343102067</v>
+        <v>80.04466343102068</v>
       </c>
       <c r="H4" t="n">
-        <v>3.251381400614632</v>
+        <v>3.251381400614631</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>31.83407576318698</v>
       </c>
       <c r="P4" t="n">
-        <v>9.528842181463935</v>
+        <v>9.528842181463933</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01146877123962625</v>
+        <v>0.01146877123962651</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0707715274927793</v>
+        <v>0.07077152749277946</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06561284316500948</v>
+        <v>0.06561284316501051</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06472113719636841</v>
+        <v>0.06472113719637018</v>
       </c>
       <c r="U4" t="n">
         <v>0.2636969655218036</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1162693016472831</v>
+        <v>0.1162693016472845</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002022600000003649</v>
+        <v>0.001692099999999641</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -825,16 +825,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1054826782733397</v>
+        <v>0.105482678273327</v>
       </c>
       <c r="F5" t="n">
-        <v>9.910411154759947</v>
+        <v>9.910411154759954</v>
       </c>
       <c r="G5" t="n">
         <v>99.25974770644137</v>
       </c>
       <c r="H5" t="n">
-        <v>11.29116515519844</v>
+        <v>11.29116515519846</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -855,28 +855,28 @@
         <v>15.67687823027242</v>
       </c>
       <c r="O5" t="n">
-        <v>70.64949410695989</v>
+        <v>70.64949410695988</v>
       </c>
       <c r="P5" t="n">
-        <v>15.43337878426446</v>
+        <v>15.43337878426448</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01369017440759412</v>
+        <v>0.0136901744075958</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1969446665939079</v>
+        <v>0.1969446665939582</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3084120152450687</v>
+        <v>0.3084120152451491</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07554578936178261</v>
+        <v>0.07554578936179879</v>
       </c>
       <c r="U5" t="n">
         <v>0.2614557321106691</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0769750277477888</v>
+        <v>0.07697502774778363</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004284200000000737</v>
+        <v>0.003522500000000761</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -916,7 +916,7 @@
         <v>173.9465991027023</v>
       </c>
       <c r="H6" t="n">
-        <v>9.663704774449796</v>
+        <v>9.663704774449792</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>4.716918430300257</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005189622395434795</v>
+        <v>0.005189622395434814</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06175509117728709</v>
+        <v>0.06175509117728712</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01958556071322778</v>
+        <v>0.01958556071322767</v>
       </c>
       <c r="T6" t="n">
         <v>0.07533354058980499</v>
@@ -958,7 +958,7 @@
         <v>0.2347663779009198</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07300184433646338</v>
+        <v>0.07300184433644824</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.009071400000010499</v>
+        <v>0.004363700000000748</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -995,7 +995,7 @@
         <v>10.08686651624607</v>
       </c>
       <c r="G7" t="n">
-        <v>40.06537535067118</v>
+        <v>40.06537535067117</v>
       </c>
       <c r="H7" t="n">
         <v>13.67122985383625</v>
@@ -1019,28 +1019,28 @@
         <v>22.87529985576693</v>
       </c>
       <c r="O7" t="n">
-        <v>30.32819229263572</v>
+        <v>30.32819229263571</v>
       </c>
       <c r="P7" t="n">
-        <v>23.20088234019128</v>
+        <v>23.20088234019127</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01484813186163791</v>
+        <v>0.01484813186163807</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1442326143133425</v>
+        <v>0.1442326143133436</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1862876327442033</v>
+        <v>0.186287632744207</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1853577969926345</v>
+        <v>0.185357796992638</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2399093190690512</v>
+        <v>0.2399093190690516</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07914179837435727</v>
+        <v>0.0791417983743499</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002276199999997175</v>
+        <v>0.002148599999999945</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>359.8796581453097</v>
       </c>
       <c r="F8" t="n">
-        <v>10.28972544161688</v>
+        <v>10.28972544161687</v>
       </c>
       <c r="G8" t="n">
-        <v>160.0262275093645</v>
+        <v>160.0262275093646</v>
       </c>
       <c r="H8" t="n">
-        <v>7.291911473362385</v>
+        <v>7.291911473362378</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>97.57969630355545</v>
       </c>
       <c r="P8" t="n">
-        <v>4.174328344507837</v>
+        <v>4.174328344507831</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01379523706690168</v>
+        <v>0.01379523706691668</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2124905465963239</v>
+        <v>0.2124905465966258</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1307843728761555</v>
+        <v>0.1307843728763404</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1910976812359679</v>
+        <v>0.1910976812362392</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2318672401132491</v>
+        <v>0.231867240113249</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2209546709939495</v>
+        <v>0.2209546709939433</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.005831799999995724</v>
+        <v>0.004688500000000317</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1156,7 +1156,7 @@
         <v>0.0627151007642917</v>
       </c>
       <c r="F9" t="n">
-        <v>9.807707706791764</v>
+        <v>9.807707706791769</v>
       </c>
       <c r="G9" t="n">
         <v>13.46873916990638</v>
@@ -1189,22 +1189,22 @@
         <v>21.68762778912518</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01320770731754532</v>
+        <v>0.01320770731754539</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1533289914828501</v>
+        <v>0.1533289914828509</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07846998644241145</v>
+        <v>0.07846998644241136</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2676327529376543</v>
+        <v>0.2676327529376552</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2372846872798922</v>
+        <v>0.237284687279892</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1404708720571859</v>
+        <v>0.1404708720571867</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003636099999994258</v>
+        <v>0.001639499999999572</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>359.9885693235599</v>
       </c>
       <c r="F10" t="n">
-        <v>9.944744866785303</v>
+        <v>9.94474486678531</v>
       </c>
       <c r="G10" t="n">
         <v>157.2005860875827</v>
       </c>
       <c r="H10" t="n">
-        <v>14.52894012581415</v>
+        <v>14.52894012581416</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1268,25 +1268,25 @@
         <v>137.8149250211779</v>
       </c>
       <c r="P10" t="n">
-        <v>11.80075803707315</v>
+        <v>11.80075803707316</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.006460732149121292</v>
+        <v>0.006460732149121269</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08499574422940685</v>
+        <v>0.084995744229393</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07107133513079317</v>
+        <v>0.07107133513078179</v>
       </c>
       <c r="T10" t="n">
-        <v>0.136554083356591</v>
+        <v>0.1365540833565687</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2735619866161856</v>
+        <v>0.2735619866161855</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0297224087089384</v>
+        <v>0.02972240870893477</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004930099999995718</v>
+        <v>0.004163100000001307</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1326,7 +1326,7 @@
         <v>1.929453564083949</v>
       </c>
       <c r="H11" t="n">
-        <v>8.910803169185241</v>
+        <v>8.910803169185247</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>18.25709750591221</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01075751842427985</v>
+        <v>0.01075751842427974</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2160914203636602</v>
+        <v>0.2160914203636571</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0399875739667245</v>
+        <v>0.03998757396672425</v>
       </c>
       <c r="T11" t="n">
-        <v>0.350320274899894</v>
+        <v>0.3503202748998872</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2617622958859935</v>
+        <v>0.2617622958859936</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03738478149148662</v>
+        <v>0.03738478149148515</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004300499999999374</v>
+        <v>0.001592800000000949</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1399,16 +1399,16 @@
         <v>3.249023392312818</v>
       </c>
       <c r="E12" t="n">
-        <v>359.9680606754165</v>
+        <v>359.9680606754164</v>
       </c>
       <c r="F12" t="n">
-        <v>9.998354893339574</v>
+        <v>9.998354893339577</v>
       </c>
       <c r="G12" t="n">
         <v>138.8511100418627</v>
       </c>
       <c r="H12" t="n">
-        <v>3.254755913513798</v>
+        <v>3.254755913513799</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>40.06412231019974</v>
       </c>
       <c r="P12" t="n">
-        <v>5.802746881538735</v>
+        <v>5.802746881538736</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01046718265875477</v>
+        <v>0.01046718265875474</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05533385735412522</v>
+        <v>0.05533385735412575</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05067208552120493</v>
+        <v>0.05067208552120445</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03682955683930135</v>
+        <v>0.03682955683930178</v>
       </c>
       <c r="U12" t="n">
-        <v>0.222441666777504</v>
+        <v>0.2224416667775038</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01521148104521651</v>
+        <v>0.01521148104521694</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00318749999999568</v>
+        <v>0.003046900000001074</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1484,13 +1484,13 @@
         <v>0.02774055359636167</v>
       </c>
       <c r="F13" t="n">
-        <v>9.843355909646371</v>
+        <v>9.84335590964637</v>
       </c>
       <c r="G13" t="n">
         <v>31.5163921667587</v>
       </c>
       <c r="H13" t="n">
-        <v>3.17666639666871</v>
+        <v>3.176666396668709</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>10.94516498437967</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01079935694264609</v>
+        <v>0.01079935694264623</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08094487063264123</v>
+        <v>0.08094487063264102</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04653562854028463</v>
+        <v>0.0465356285402857</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1206253117388892</v>
+        <v>0.1206253117388918</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2406464341456483</v>
+        <v>0.2406464341456485</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1335537947009375</v>
+        <v>0.1335537947009384</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002082399999991935</v>
+        <v>0.001557099999999423</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1599,16 +1599,16 @@
         <v>21.94189616126665</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01430302844176281</v>
+        <v>0.01430302844176288</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1347325948236556</v>
+        <v>0.1347325948236528</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1247025763847387</v>
+        <v>0.1247025763847367</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2059529330807522</v>
+        <v>0.2059529330807514</v>
       </c>
       <c r="U14" t="n">
         <v>0.2518117958211752</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.0020183999999972</v>
+        <v>0.001597399999999638</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1675,28 +1675,28 @@
         <v>6.028251123835125</v>
       </c>
       <c r="O15" t="n">
-        <v>70.61555542519721</v>
+        <v>70.6155554251972</v>
       </c>
       <c r="P15" t="n">
-        <v>6.081401701172463</v>
+        <v>6.081401701172464</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01198487747273762</v>
+        <v>0.01198487747273529</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1137238409100167</v>
+        <v>0.1137238409099663</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1014650828951152</v>
+        <v>0.1014650828950737</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0679565469327791</v>
+        <v>0.0679565469327495</v>
       </c>
       <c r="U15" t="n">
         <v>0.2192833584110812</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05569662506321015</v>
+        <v>0.05569662506320328</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.004593400000004522</v>
+        <v>0.004013699999999787</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1730,13 +1730,13 @@
         <v>0.08932668130371872</v>
       </c>
       <c r="F16" t="n">
-        <v>9.889369396468059</v>
+        <v>9.889369396468053</v>
       </c>
       <c r="G16" t="n">
-        <v>92.34306123612883</v>
+        <v>92.34306123612878</v>
       </c>
       <c r="H16" t="n">
-        <v>12.12771862992416</v>
+        <v>12.12771862992415</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>66.99285042078377</v>
       </c>
       <c r="P16" t="n">
-        <v>17.08605920997737</v>
+        <v>17.08605920997736</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0139077656831105</v>
+        <v>0.01390776568311037</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1945529438067087</v>
+        <v>0.1945529438067029</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3257185303750932</v>
+        <v>0.3257185303750837</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05164301093709258</v>
+        <v>0.05164301093709152</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2595046355323199</v>
+        <v>0.2595046355323197</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05821255792746238</v>
+        <v>0.05821255792746698</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004480700000002003</v>
+        <v>0.004544499999999729</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1812,13 +1812,13 @@
         <v>0.02445315695284036</v>
       </c>
       <c r="F17" t="n">
-        <v>9.976314890919282</v>
+        <v>9.976314890919284</v>
       </c>
       <c r="G17" t="n">
         <v>152.8890126479021</v>
       </c>
       <c r="H17" t="n">
-        <v>5.126670476410198</v>
+        <v>5.1266704764102</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>4.419793767587765</v>
       </c>
       <c r="O17" t="n">
-        <v>64.66030518714236</v>
+        <v>64.66030518714234</v>
       </c>
       <c r="P17" t="n">
-        <v>4.401789054156506</v>
+        <v>4.401789054156507</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01110801989277935</v>
+        <v>0.01110801989277991</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08332230837668017</v>
+        <v>0.08332230837669576</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06854395460428823</v>
+        <v>0.06854395460429803</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04656632798519589</v>
+        <v>0.04656632798520489</v>
       </c>
       <c r="U17" t="n">
         <v>0.2504144834306493</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02073176783167258</v>
+        <v>0.02073176783166995</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004803799999990588</v>
+        <v>0.005026600000000769</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>40.02525011688356</v>
       </c>
       <c r="H18" t="n">
-        <v>8.93128957508339</v>
+        <v>8.931289575083387</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1921,28 +1921,28 @@
         <v>17.9514684390679</v>
       </c>
       <c r="O18" t="n">
-        <v>27.67327921457817</v>
+        <v>27.67327921457818</v>
       </c>
       <c r="P18" t="n">
         <v>17.37932139831303</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01320201340903072</v>
+        <v>0.0132020134090307</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1076020561483427</v>
+        <v>0.10760205614834</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1138548336704002</v>
+        <v>0.1138548336703975</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1302796182036697</v>
+        <v>0.1302796182036684</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2127866065039389</v>
+        <v>0.212786606503939</v>
       </c>
       <c r="V18" t="n">
-        <v>0.167274317087974</v>
+        <v>0.1672743170879682</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.004235600000001227</v>
+        <v>0.006394699999999531</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1979,10 +1979,10 @@
         <v>9.931320858606783</v>
       </c>
       <c r="G19" t="n">
-        <v>52.71244060665077</v>
+        <v>52.71244060665078</v>
       </c>
       <c r="H19" t="n">
-        <v>9.420001540218225</v>
+        <v>9.420001540218227</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>17.4087621630154</v>
       </c>
       <c r="O19" t="n">
-        <v>35.62649152459655</v>
+        <v>35.62649152459657</v>
       </c>
       <c r="P19" t="n">
         <v>17.42438516302036</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01359919201907245</v>
+        <v>0.01359919201907272</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1166362327308323</v>
+        <v>0.1166362327308317</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1464930896348024</v>
+        <v>0.1464930896348048</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1055514083683915</v>
+        <v>0.1055514083683945</v>
       </c>
       <c r="U19" t="n">
         <v>0.2577050566150604</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03553458498787734</v>
+        <v>0.03553458498787034</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.00222829999999874</v>
+        <v>0.002420100000000147</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>116.9300020001907</v>
       </c>
       <c r="H20" t="n">
-        <v>9.405557644764402</v>
+        <v>9.405557644764407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>11.47804279475005</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01414982680993955</v>
+        <v>0.01414982680993707</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1983038381784453</v>
+        <v>0.1983038381783705</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2457899414168338</v>
+        <v>0.2457899414167446</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1219609707564414</v>
+        <v>0.1219609707563953</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2556381520189178</v>
+        <v>0.2556381520189175</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1732890872071515</v>
+        <v>0.1732890872071537</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.00857560000000035</v>
+        <v>0.00402210000000025</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2140,13 +2140,13 @@
         <v>359.9957585983569</v>
       </c>
       <c r="F21" t="n">
-        <v>9.917282124805965</v>
+        <v>9.917282124805963</v>
       </c>
       <c r="G21" t="n">
         <v>17.4618245339392</v>
       </c>
       <c r="H21" t="n">
-        <v>12.2432230409407</v>
+        <v>12.24322304094069</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>14.66537059037744</v>
       </c>
       <c r="P21" t="n">
-        <v>22.03357639699821</v>
+        <v>22.0335763969982</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01364206705263654</v>
+        <v>0.01364206705263649</v>
       </c>
       <c r="R21" t="n">
-        <v>0.14444479715808</v>
+        <v>0.1444447971580795</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09217775582592401</v>
+        <v>0.09217775582592459</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2476945677549874</v>
+        <v>0.2476945677549881</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2411639642875919</v>
+        <v>0.2411639642875917</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03022225676513783</v>
+        <v>0.03022225676513592</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.008785699999990015</v>
+        <v>0.002848900000000043</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.0741756309740762</v>
       </c>
       <c r="F22" t="n">
-        <v>9.773981537291199</v>
+        <v>9.773981537291194</v>
       </c>
       <c r="G22" t="n">
         <v>105.8174892615881</v>
       </c>
       <c r="H22" t="n">
-        <v>13.33714423393836</v>
+        <v>13.33714423393835</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>80.43157160170962</v>
       </c>
       <c r="P22" t="n">
-        <v>16.81560734389121</v>
+        <v>16.8156073438912</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01417397050721564</v>
+        <v>0.01417397050721724</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2564720592073162</v>
+        <v>0.2564720592073837</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4411855473598386</v>
+        <v>0.4411855473599536</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1530536760587808</v>
+        <v>0.1530536760588207</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2358137221877571</v>
+        <v>0.2358137221877569</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1366349867154862</v>
+        <v>0.1366349867154892</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.007244999999997503</v>
+        <v>0.003948799999999864</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2337,22 +2337,22 @@
         <v>15.66022061579733</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0113078884627148</v>
+        <v>0.01130788846271495</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1410858816639659</v>
+        <v>0.1410858816639669</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0467539048822055</v>
+        <v>0.04675390488220629</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2314468771059515</v>
+        <v>0.231446877105956</v>
       </c>
       <c r="U23" t="n">
         <v>0.2532668520387372</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1947651514622773</v>
+        <v>0.1947651514622771</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002925700000005804</v>
+        <v>0.001367199999998903</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>10.18242666968832</v>
       </c>
       <c r="G24" t="n">
-        <v>38.14488792406251</v>
+        <v>38.14488792406252</v>
       </c>
       <c r="H24" t="n">
-        <v>8.732187614673308</v>
+        <v>8.732187614673306</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2419,22 +2419,22 @@
         <v>17.55896462929137</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01358204341891326</v>
+        <v>0.01358204341891323</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1122658469709547</v>
+        <v>0.1122658469709523</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1104025884756843</v>
+        <v>0.1104025884756813</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1399891987046176</v>
+        <v>0.1399891987046161</v>
       </c>
       <c r="U24" t="n">
         <v>0.275647013628866</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05613608693711873</v>
+        <v>0.05613608693711924</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002025099999997337</v>
+        <v>0.001680999999999599</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>359.9845214540121</v>
       </c>
       <c r="F25" t="n">
-        <v>9.910672082791786</v>
+        <v>9.910672082791789</v>
       </c>
       <c r="G25" t="n">
         <v>93.13011668116037</v>
@@ -2498,25 +2498,25 @@
         <v>70.72887783750156</v>
       </c>
       <c r="P25" t="n">
-        <v>19.27939526700188</v>
+        <v>19.27939526700189</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.014701001898464</v>
+        <v>0.01470100189846234</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2319566312946571</v>
+        <v>0.2319566312945786</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4316002316424729</v>
+        <v>0.4316002316423297</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06767826023014864</v>
+        <v>0.06767826023012927</v>
       </c>
       <c r="U25" t="n">
         <v>0.229017969458701</v>
       </c>
       <c r="V25" t="n">
-        <v>0.05797913499058045</v>
+        <v>0.05797913499057861</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.008681100000003994</v>
+        <v>0.003808199999999928</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2580,25 +2580,25 @@
         <v>154.9721919167357</v>
       </c>
       <c r="P26" t="n">
-        <v>6.818436273534457</v>
+        <v>6.818436273534456</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.005109338252305806</v>
+        <v>0.005109338252305811</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0546349807064973</v>
+        <v>0.05463498070650813</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02036140313406659</v>
+        <v>0.02036140313407007</v>
       </c>
       <c r="T26" t="n">
-        <v>0.07534640713687904</v>
+        <v>0.075346407136894</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2434397452159622</v>
+        <v>0.2434397452159621</v>
       </c>
       <c r="V26" t="n">
-        <v>0.009977450505110711</v>
+        <v>0.009977450505111535</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.01137179999999205</v>
+        <v>0.006422399999999939</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2638,7 +2638,7 @@
         <v>156.7549159998561</v>
       </c>
       <c r="H27" t="n">
-        <v>9.899087002245315</v>
+        <v>9.899087002245318</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>121.4498165406224</v>
       </c>
       <c r="P27" t="n">
-        <v>6.879039136269658</v>
+        <v>6.879039136269659</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.007050938140615153</v>
+        <v>0.007050938140614011</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1363712462971671</v>
+        <v>0.1363712462970214</v>
       </c>
       <c r="S27" t="n">
-        <v>0.09033930068999467</v>
+        <v>0.09033930068989987</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1617977297403672</v>
+        <v>0.1617977297401943</v>
       </c>
       <c r="U27" t="n">
-        <v>0.267255147931609</v>
+        <v>0.2672551479316092</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05291285270732006</v>
+        <v>0.05291285270731896</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.009256600000000503</v>
+        <v>0.004445900000000336</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2717,10 +2717,10 @@
         <v>10.05641478413008</v>
       </c>
       <c r="G28" t="n">
-        <v>55.72621335471775</v>
+        <v>55.72621335471774</v>
       </c>
       <c r="H28" t="n">
-        <v>9.212817909691541</v>
+        <v>9.212817909691545</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2747,22 +2747,22 @@
         <v>17.11982567437117</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0136429846098315</v>
+        <v>0.01364298460983147</v>
       </c>
       <c r="R28" t="n">
-        <v>0.118622011494259</v>
+        <v>0.1186220114942536</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1497174721372475</v>
+        <v>0.1497174721372411</v>
       </c>
       <c r="T28" t="n">
-        <v>0.09898326517490068</v>
+        <v>0.09898326517489926</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2400219313320473</v>
+        <v>0.2400219313320475</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02820104594085042</v>
+        <v>0.02820104594084979</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.01311129999999139</v>
+        <v>0.002950099999999622</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,7 +2796,7 @@
         <v>359.901521332807</v>
       </c>
       <c r="F29" t="n">
-        <v>9.994699440707581</v>
+        <v>9.994699440707585</v>
       </c>
       <c r="G29" t="n">
         <v>76.60996911850253</v>
@@ -2826,25 +2826,25 @@
         <v>55.84625608943987</v>
       </c>
       <c r="P29" t="n">
-        <v>19.49333706749509</v>
+        <v>19.4933370674951</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01450618764104623</v>
+        <v>0.01450618764104556</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1735433017015239</v>
+        <v>0.1735433017014852</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2974208637631027</v>
+        <v>0.2974208637630401</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05623130164341397</v>
+        <v>0.05623130164341118</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2588126007749614</v>
+        <v>0.2588126007749615</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02527597197095866</v>
+        <v>0.02527597197096062</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.009917800000010857</v>
+        <v>0.002529400000000237</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2875,16 +2875,16 @@
         <v>9.734875227931694</v>
       </c>
       <c r="E30" t="n">
-        <v>359.9701162275614</v>
+        <v>359.9701162275613</v>
       </c>
       <c r="F30" t="n">
-        <v>10.08605657478956</v>
+        <v>10.08605657478957</v>
       </c>
       <c r="G30" t="n">
         <v>131.1679156690043</v>
       </c>
       <c r="H30" t="n">
-        <v>9.8648671145168</v>
+        <v>9.864867114516807</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>91.83471571456472</v>
       </c>
       <c r="P30" t="n">
-        <v>10.08169471674617</v>
+        <v>10.08169471674618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01379322289786978</v>
+        <v>0.01379322289785002</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2529937559306951</v>
+        <v>0.2529937559300932</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2784677961851582</v>
+        <v>0.2784677961845009</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2232156715734383</v>
+        <v>0.2232156715729075</v>
       </c>
       <c r="U30" t="n">
-        <v>0.23953399481981</v>
+        <v>0.2395339948198099</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06113910951746225</v>
+        <v>0.06113910951746698</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.01114540000000375</v>
+        <v>0.004020800000001046</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2966,7 +2966,7 @@
         <v>154.9398881553253</v>
       </c>
       <c r="H31" t="n">
-        <v>6.612068916523658</v>
+        <v>6.61206891652366</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,28 +2987,28 @@
         <v>4.383667298314077</v>
       </c>
       <c r="O31" t="n">
-        <v>85.0773439553418</v>
+        <v>85.07734395534182</v>
       </c>
       <c r="P31" t="n">
-        <v>4.53666513711943</v>
+        <v>4.536665137119433</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01327534515302014</v>
+        <v>0.0132753451530138</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1590749073784959</v>
+        <v>0.1590749073783854</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1137326557041404</v>
+        <v>0.113732655704063</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1248824458109721</v>
+        <v>0.1248824458108856</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2514451425775211</v>
+        <v>0.2514451425775212</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1479671394075086</v>
+        <v>0.1479671394075038</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005320199999999886</v>
+        <v>0.004374199999999107</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3042,13 +3042,13 @@
         <v>0.03618442427184498</v>
       </c>
       <c r="F32" t="n">
-        <v>9.897842785873383</v>
+        <v>9.89784278587338</v>
       </c>
       <c r="G32" t="n">
         <v>115.918879845871</v>
       </c>
       <c r="H32" t="n">
-        <v>7.450295720764064</v>
+        <v>7.450295720764061</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>69.89761158371242</v>
       </c>
       <c r="P32" t="n">
-        <v>9.815760386336404</v>
+        <v>9.8157603863364</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01257835204606486</v>
+        <v>0.01257835204606401</v>
       </c>
       <c r="R32" t="n">
-        <v>0.142014050125387</v>
+        <v>0.1420140501253633</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1644092116916109</v>
+        <v>0.1644092116915848</v>
       </c>
       <c r="T32" t="n">
-        <v>0.07169814232800742</v>
+        <v>0.07169814232799587</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2488597393744654</v>
+        <v>0.2488597393744657</v>
       </c>
       <c r="V32" t="n">
-        <v>0.07146360659204912</v>
+        <v>0.07146360659205089</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.00665329999999642</v>
+        <v>0.003714999999999691</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3121,7 +3121,7 @@
         <v>14.497266798228</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08119352681221009</v>
+        <v>0.08119352681222282</v>
       </c>
       <c r="F33" t="n">
         <v>9.893393157088665</v>
@@ -3151,28 +3151,28 @@
         <v>23.45979414801152</v>
       </c>
       <c r="O33" t="n">
-        <v>38.97173879219744</v>
+        <v>38.97173879219743</v>
       </c>
       <c r="P33" t="n">
         <v>23.2621599613964</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01469930722990451</v>
+        <v>0.0146993072299044</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1537478677772005</v>
+        <v>0.1537478677771883</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2433071586808705</v>
+        <v>0.2433071586808518</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1578388560263794</v>
+        <v>0.1578388560263708</v>
       </c>
       <c r="U33" t="n">
         <v>0.2565115778908945</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06445844547589513</v>
+        <v>0.06445844547589544</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.003102200000000721</v>
+        <v>0.002857399999999899</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3206,13 +3206,13 @@
         <v>359.8822947945092</v>
       </c>
       <c r="F34" t="n">
-        <v>10.17414140353338</v>
+        <v>10.17414140353339</v>
       </c>
       <c r="G34" t="n">
         <v>154.1355548622998</v>
       </c>
       <c r="H34" t="n">
-        <v>7.677969061570352</v>
+        <v>7.677969061570354</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>98.06985607039285</v>
       </c>
       <c r="P34" t="n">
-        <v>5.220606030366493</v>
+        <v>5.220606030366494</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01391017051013654</v>
+        <v>0.01391017051013363</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2288620898447432</v>
+        <v>0.2288620898446788</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1587549323456451</v>
+        <v>0.1587549323456009</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2106713353284444</v>
+        <v>0.2106713353283851</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2522300590322287</v>
+        <v>0.2522300590322289</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1455328028812733</v>
+        <v>0.1455328028812748</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.008997800000003053</v>
+        <v>0.004703199999999796</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3285,16 +3285,16 @@
         <v>8.399705052609546</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1554963200681282</v>
+        <v>0.1554963200681155</v>
       </c>
       <c r="F35" t="n">
-        <v>9.993277324256498</v>
+        <v>9.9932773242565</v>
       </c>
       <c r="G35" t="n">
-        <v>45.07170716371067</v>
+        <v>45.07170716371066</v>
       </c>
       <c r="H35" t="n">
-        <v>8.123611844361619</v>
+        <v>8.123611844361626</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>29.5931058819091</v>
       </c>
       <c r="P35" t="n">
-        <v>16.40076765045484</v>
+        <v>16.40076765045485</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0132176106782206</v>
+        <v>0.01321761067822047</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1059844635055035</v>
+        <v>0.1059844635055072</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1134263215873708</v>
+        <v>0.1134263215873733</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1160594266906242</v>
+        <v>0.116059426690623</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2401654080352952</v>
+        <v>0.2401654080352951</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1265834577111766</v>
+        <v>0.1265834577111735</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002297900000002073</v>
+        <v>0.001747299999999896</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3403,22 +3403,22 @@
         <v>22.16993975612337</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01275678333822402</v>
+        <v>0.01275678333822387</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2000906390375955</v>
+        <v>0.2000906390375952</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06192509767649498</v>
+        <v>0.06192509767649411</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3466470118547884</v>
+        <v>0.3466470118547836</v>
       </c>
       <c r="U36" t="n">
         <v>0.2388167706662273</v>
       </c>
       <c r="V36" t="n">
-        <v>0.08291986918053809</v>
+        <v>0.08291986918053773</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.00182230000000061</v>
+        <v>0.001458699999998814</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>82.79855546666597</v>
       </c>
       <c r="H37" t="n">
-        <v>6.755040862272947</v>
+        <v>6.755040862272945</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3485,22 +3485,22 @@
         <v>12.50090230587179</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01281041679712117</v>
+        <v>0.01281041679712129</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1078017461418646</v>
+        <v>0.1078017461418713</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1308982492394135</v>
+        <v>0.1308982492394207</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04523562658976821</v>
+        <v>0.04523562658976844</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2608579449574637</v>
+        <v>0.2608579449574636</v>
       </c>
       <c r="V37" t="n">
-        <v>0.07296046591336788</v>
+        <v>0.07296046591336698</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002978200000001152</v>
+        <v>0.002212099999999495</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3534,13 +3534,13 @@
         <v>0.1171421290509574</v>
       </c>
       <c r="F38" t="n">
-        <v>9.537584003050052</v>
+        <v>9.537584003050053</v>
       </c>
       <c r="G38" t="n">
         <v>131.3014635741976</v>
       </c>
       <c r="H38" t="n">
-        <v>9.549735073930561</v>
+        <v>9.549735073930565</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>93.7509702170473</v>
       </c>
       <c r="P38" t="n">
-        <v>9.820045165327482</v>
+        <v>9.820045165327487</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01238431561175612</v>
+        <v>0.01238431561174707</v>
       </c>
       <c r="R38" t="n">
-        <v>0.233127791509346</v>
+        <v>0.2331277915090329</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2629802339008289</v>
+        <v>0.2629802339004798</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2139098163617202</v>
+        <v>0.213909816361433</v>
       </c>
       <c r="U38" t="n">
         <v>0.2752586691307067</v>
       </c>
       <c r="V38" t="n">
-        <v>0.266380228248424</v>
+        <v>0.2663802282484237</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005707299999997417</v>
+        <v>0.007334000000000174</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3616,13 +3616,13 @@
         <v>0.02217718564140072</v>
       </c>
       <c r="F39" t="n">
-        <v>9.906030295110515</v>
+        <v>9.906030295110519</v>
       </c>
       <c r="G39" t="n">
         <v>170.1600216082049</v>
       </c>
       <c r="H39" t="n">
-        <v>8.458308444137343</v>
+        <v>8.458308444137344</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3649,22 +3649,22 @@
         <v>3.976314168480171</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.005596028196206355</v>
+        <v>0.005596028196206404</v>
       </c>
       <c r="R39" t="n">
-        <v>0.088070812540935</v>
+        <v>0.08807081254099533</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03488546983526106</v>
+        <v>0.0348854698352831</v>
       </c>
       <c r="T39" t="n">
-        <v>0.09888983975436792</v>
+        <v>0.09888983975443559</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2423625528593955</v>
+        <v>0.2423625528593956</v>
       </c>
       <c r="V39" t="n">
-        <v>0.08495694783337865</v>
+        <v>0.08495694783337794</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.007985599999997817</v>
+        <v>0.004774100000000558</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3731,22 +3731,22 @@
         <v>21.01458955941177</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01486100228913838</v>
+        <v>0.01486100228913888</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1721554951038451</v>
+        <v>0.1721554951038649</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2946572913603665</v>
+        <v>0.2946572913604011</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0862781095002918</v>
+        <v>0.08627810950029818</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2655962857521556</v>
+        <v>0.2655962857521558</v>
       </c>
       <c r="V40" t="n">
-        <v>0.07827425031496833</v>
+        <v>0.07827425031496928</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00376809999998784</v>
+        <v>0.002584099999999978</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3780,13 +3780,13 @@
         <v>359.9797190902848</v>
       </c>
       <c r="F41" t="n">
-        <v>10.00052444600163</v>
+        <v>10.00052444600162</v>
       </c>
       <c r="G41" t="n">
         <v>98.41676635913686</v>
       </c>
       <c r="H41" t="n">
-        <v>12.59395165488049</v>
+        <v>12.59395165488048</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3813,22 +3813,22 @@
         <v>16.92643814481788</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01441961182734212</v>
+        <v>0.01441961182734162</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2205880385024401</v>
+        <v>0.2205880385024301</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3689323661505997</v>
+        <v>0.3689323661505808</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08554674530638325</v>
+        <v>0.08554674530638069</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2614704911427318</v>
+        <v>0.2614704911427317</v>
       </c>
       <c r="V41" t="n">
-        <v>0.008981679519366535</v>
+        <v>0.008981679519365127</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004695699999999192</v>
+        <v>0.003579399999999566</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3862,13 +3862,13 @@
         <v>359.9754120612041</v>
       </c>
       <c r="F42" t="n">
-        <v>10.04395642859966</v>
+        <v>10.04395642859967</v>
       </c>
       <c r="G42" t="n">
-        <v>72.5611150787482</v>
+        <v>72.56111507874819</v>
       </c>
       <c r="H42" t="n">
-        <v>3.753733595631719</v>
+        <v>3.753733595631722</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>10.33904523023202</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01174844503841959</v>
+        <v>0.0117484450384193</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07533490592584913</v>
+        <v>0.07533490592584531</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07151847140514957</v>
+        <v>0.07151847140514445</v>
       </c>
       <c r="T42" t="n">
-        <v>0.06844436334557204</v>
+        <v>0.06844436334557064</v>
       </c>
       <c r="U42" t="n">
-        <v>0.2421726781435604</v>
+        <v>0.2421726781435602</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1138578760868437</v>
+        <v>0.1138578760868468</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002454000000000178</v>
+        <v>0.001582100000000253</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3971,28 +3971,28 @@
         <v>11.20442922515501</v>
       </c>
       <c r="O43" t="n">
-        <v>21.92207190351376</v>
+        <v>21.92207190351375</v>
       </c>
       <c r="P43" t="n">
         <v>10.9302720132707</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01136657108457546</v>
+        <v>0.01136657108457533</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07619947997542947</v>
+        <v>0.07619947997543013</v>
       </c>
       <c r="S43" t="n">
-        <v>0.05620840495518652</v>
+        <v>0.05620840495518575</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1011955937404799</v>
+        <v>0.1011955937404787</v>
       </c>
       <c r="U43" t="n">
         <v>0.2503362531387885</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2297642417918955</v>
+        <v>0.2297642417919029</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002029100000001449</v>
+        <v>0.002433799999998598</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4056,25 +4056,25 @@
         <v>50.75356337965572</v>
       </c>
       <c r="P44" t="n">
-        <v>22.07269996367909</v>
+        <v>22.0726999636791</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01471425511140785</v>
+        <v>0.01471425511140755</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1771451186066929</v>
+        <v>0.1771451186066825</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3144780181666498</v>
+        <v>0.314478018166629</v>
       </c>
       <c r="T44" t="n">
-        <v>0.09870080891590366</v>
+        <v>0.09870080891589798</v>
       </c>
       <c r="U44" t="n">
         <v>0.2344223374290236</v>
       </c>
       <c r="V44" t="n">
-        <v>0.03907796461687339</v>
+        <v>0.03907796461687219</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002742900000001214</v>
+        <v>0.002326500000000564</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4141,22 +4141,22 @@
         <v>19.76432235550595</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01321936876159386</v>
+        <v>0.0132193687615943</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1274268360236184</v>
+        <v>0.1274268360236187</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0868555073883414</v>
+        <v>0.08685550738834555</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2084660042525381</v>
+        <v>0.2084660042525497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.244525525519121</v>
+        <v>0.2445255255191211</v>
       </c>
       <c r="V45" t="n">
-        <v>0.04829398523150885</v>
+        <v>0.04829398523151031</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002036300000000324</v>
+        <v>0.001540000000000319</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4217,28 +4217,28 @@
         <v>4.733318900759217</v>
       </c>
       <c r="O46" t="n">
-        <v>51.58472469303595</v>
+        <v>51.58472469303594</v>
       </c>
       <c r="P46" t="n">
-        <v>4.795601172494482</v>
+        <v>4.795601172494483</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01070331245431282</v>
+        <v>0.01070331245431257</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06392990944983469</v>
+        <v>0.06392990944983448</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05636560050941188</v>
+        <v>0.05636560050941033</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03084328654265754</v>
+        <v>0.03084328654265821</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2495143078176404</v>
+        <v>0.2495143078176408</v>
       </c>
       <c r="V46" t="n">
-        <v>0.09230392097851285</v>
+        <v>0.09230392097851264</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00370509999999058</v>
+        <v>0.004490699999999848</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4305,19 +4305,19 @@
         <v>4.409841460957436</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.004891192540475212</v>
+        <v>0.004891192540475112</v>
       </c>
       <c r="R47" t="n">
-        <v>0.04860194181203015</v>
+        <v>0.04860194181200612</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01212100392065188</v>
+        <v>0.01212100392064763</v>
       </c>
       <c r="T47" t="n">
-        <v>0.05946138867466284</v>
+        <v>0.05946138867463342</v>
       </c>
       <c r="U47" t="n">
-        <v>0.2360513445965181</v>
+        <v>0.236051344596518</v>
       </c>
       <c r="V47" t="n">
         <v>0.008471226121410436</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.005782600000003413</v>
+        <v>0.004713100000000026</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4354,13 +4354,13 @@
         <v>0.05283921784537689</v>
       </c>
       <c r="F48" t="n">
-        <v>9.815176368404275</v>
+        <v>9.81517636840427</v>
       </c>
       <c r="G48" t="n">
         <v>141.2348469303466</v>
       </c>
       <c r="H48" t="n">
-        <v>10.33965632113542</v>
+        <v>10.33965632113541</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
         <v>105.4646020622316</v>
       </c>
       <c r="P48" t="n">
-        <v>9.284403446869927</v>
+        <v>9.284403446869922</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01029552689225242</v>
+        <v>0.01029552689225702</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2173565494699532</v>
+        <v>0.2173565494701656</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2130907505459591</v>
+        <v>0.2130907505461662</v>
       </c>
       <c r="T48" t="n">
-        <v>0.2363030242727185</v>
+        <v>0.2363030242729493</v>
       </c>
       <c r="U48" t="n">
         <v>0.2573619480354906</v>
       </c>
       <c r="V48" t="n">
-        <v>0.1198011201330369</v>
+        <v>0.1198011201330395</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.006907499999996958</v>
+        <v>0.005752499999999827</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4436,7 +4436,7 @@
         <v>0.03171297670483186</v>
       </c>
       <c r="F49" t="n">
-        <v>10.06381862111192</v>
+        <v>10.06381862111193</v>
       </c>
       <c r="G49" t="n">
         <v>20.47077207038669</v>
@@ -4466,25 +4466,25 @@
         <v>17.01772410324636</v>
       </c>
       <c r="P49" t="n">
-        <v>24.95136791317799</v>
+        <v>24.951367913178</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01463552208769218</v>
+        <v>0.01463552208769183</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1554777865575667</v>
+        <v>0.1554777865575683</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1221646777035044</v>
+        <v>0.1221646777035012</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2695844498724023</v>
+        <v>0.2695844498723916</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2489353085525079</v>
+        <v>0.248935308552508</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02496349645808092</v>
+        <v>0.02496349645808075</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001974500000002877</v>
+        <v>0.001595299999999966</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4521,10 +4521,10 @@
         <v>9.775185656553607</v>
       </c>
       <c r="G50" t="n">
-        <v>3.004376396658556</v>
+        <v>3.004376396658544</v>
       </c>
       <c r="H50" t="n">
-        <v>13.80909341429074</v>
+        <v>13.80909341429073</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,25 +4548,25 @@
         <v>4.91346562356268</v>
       </c>
       <c r="P50" t="n">
-        <v>23.79439887825964</v>
+        <v>23.79439887825963</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01182256394152448</v>
+        <v>0.01182256394152459</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2617329776883539</v>
+        <v>0.2617329776883555</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0521903324084434</v>
+        <v>0.05219033240844397</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4455348251769969</v>
+        <v>0.4455348251770039</v>
       </c>
       <c r="U50" t="n">
         <v>0.2546588767580429</v>
       </c>
       <c r="V50" t="n">
-        <v>0.04662143854050216</v>
+        <v>0.04662143854050239</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001828799999998409</v>
+        <v>0.001523099999999999</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9768540792134</v>
       </c>
       <c r="F51" t="n">
-        <v>9.916290104478323</v>
+        <v>9.916290104478328</v>
       </c>
       <c r="G51" t="n">
-        <v>53.72305237616525</v>
+        <v>53.72305237616528</v>
       </c>
       <c r="H51" t="n">
-        <v>5.957745989810673</v>
+        <v>5.957745989810675</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>13.5120365339658</v>
       </c>
       <c r="O51" t="n">
-        <v>31.0072859594506</v>
+        <v>31.00728595945061</v>
       </c>
       <c r="P51" t="n">
-        <v>13.4524104878758</v>
+        <v>13.45241048787581</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01247461293132441</v>
+        <v>0.0124746129313244</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09031784459313387</v>
+        <v>0.09031784459313288</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09268525444490781</v>
+        <v>0.0926852544449069</v>
       </c>
       <c r="T51" t="n">
-        <v>0.08873087402229089</v>
+        <v>0.08873087402229063</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2276771838699476</v>
+        <v>0.2276771838699473</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03786026979864254</v>
+        <v>0.03786026979864065</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001979599999998527</v>
+        <v>0.002149799999999757</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,10 +4685,10 @@
         <v>10.01556914007623</v>
       </c>
       <c r="G52" t="n">
-        <v>88.84849123395099</v>
+        <v>88.84849123395098</v>
       </c>
       <c r="H52" t="n">
-        <v>5.786220791833157</v>
+        <v>5.786220791833158</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>11.00547523311644</v>
       </c>
       <c r="O52" t="n">
-        <v>47.08717673920727</v>
+        <v>47.08717673920726</v>
       </c>
       <c r="P52" t="n">
-        <v>11.07198128280798</v>
+        <v>11.07198128280799</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01238148460366313</v>
+        <v>0.01238148460366339</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09762125556297989</v>
+        <v>0.09762125556298792</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1120038967067301</v>
+        <v>0.1120038967067394</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04168634236806795</v>
+        <v>0.04168634236806745</v>
       </c>
       <c r="U52" t="n">
-        <v>0.2450581034088377</v>
+        <v>0.2450581034088378</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04833092322191163</v>
+        <v>0.04833092322191299</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.005033299999993801</v>
+        <v>0.002285999999999788</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4791,28 +4791,28 @@
         <v>7.034854823508725</v>
       </c>
       <c r="O53" t="n">
-        <v>42.7412980903304</v>
+        <v>42.74129809033042</v>
       </c>
       <c r="P53" t="n">
-        <v>7.069000044306232</v>
+        <v>7.069000044306231</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01099321656597381</v>
+        <v>0.0109932165659741</v>
       </c>
       <c r="R53" t="n">
-        <v>0.06580630206299939</v>
+        <v>0.06580630206299946</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06351513650042943</v>
+        <v>0.06351513650043181</v>
       </c>
       <c r="T53" t="n">
-        <v>0.03723767781003207</v>
+        <v>0.03723767781003176</v>
       </c>
       <c r="U53" t="n">
-        <v>0.2432916298678565</v>
+        <v>0.2432916298678567</v>
       </c>
       <c r="V53" t="n">
-        <v>0.07423172153926433</v>
+        <v>0.0742317215392638</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003127100000000382</v>
+        <v>0.002653000000000461</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4879,19 +4879,19 @@
         <v>5.313442649554453</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01036052802922796</v>
+        <v>0.01036052802922785</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05246430628101308</v>
+        <v>0.0524643062810107</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04697234364749477</v>
+        <v>0.04697234364749267</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03647445289880394</v>
+        <v>0.03647445289880448</v>
       </c>
       <c r="U54" t="n">
-        <v>0.2309624378056999</v>
+        <v>0.2309624378056998</v>
       </c>
       <c r="V54" t="n">
         <v>0.1506914558191008</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005273599999995326</v>
+        <v>0.004004399999999464</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4928,13 +4928,13 @@
         <v>0.0009926974871216864</v>
       </c>
       <c r="F55" t="n">
-        <v>9.842383202319311</v>
+        <v>9.842383202319315</v>
       </c>
       <c r="G55" t="n">
         <v>152.4813845292455</v>
       </c>
       <c r="H55" t="n">
-        <v>9.530102954112641</v>
+        <v>9.530102954112646</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>114.3139678352446</v>
       </c>
       <c r="P55" t="n">
-        <v>7.082753911700277</v>
+        <v>7.082753911700282</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.008291328016056018</v>
+        <v>0.008291328016052677</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1696568889329679</v>
+        <v>0.1696568889327493</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1257754852625006</v>
+        <v>0.1257754852623412</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1918983989347928</v>
+        <v>0.1918983989345456</v>
       </c>
       <c r="U55" t="n">
         <v>0.2802158115131987</v>
       </c>
       <c r="V55" t="n">
-        <v>0.09720128495892007</v>
+        <v>0.09720128495891767</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00545509999999183</v>
+        <v>0.004560500000000189</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5010,13 +5010,13 @@
         <v>0.1142272206196995</v>
       </c>
       <c r="F56" t="n">
-        <v>9.852946111137042</v>
+        <v>9.852946111137044</v>
       </c>
       <c r="G56" t="n">
         <v>75.76502735796167</v>
       </c>
       <c r="H56" t="n">
-        <v>7.119593094468559</v>
+        <v>7.119593094468563</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>13.64739445873363</v>
       </c>
       <c r="O56" t="n">
-        <v>45.40781942016127</v>
+        <v>45.40781942016128</v>
       </c>
       <c r="P56" t="n">
-        <v>13.30008915752411</v>
+        <v>13.30008915752412</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01264601622035956</v>
+        <v>0.01264601622035938</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1064261869334094</v>
+        <v>0.1064261869334073</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1331919062770871</v>
+        <v>0.1331919062770834</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05237365709343689</v>
+        <v>0.05237365709343633</v>
       </c>
       <c r="U56" t="n">
-        <v>0.2457673548248604</v>
+        <v>0.2457673548248603</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1364650465871729</v>
+        <v>0.136465046587171</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.00225400000000775</v>
+        <v>0.001884999999999692</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5125,19 +5125,19 @@
         <v>25.21171488892001</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01441665138810182</v>
+        <v>0.01441665138810216</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1636033420865299</v>
+        <v>0.1636033420865302</v>
       </c>
       <c r="S57" t="n">
-        <v>0.109150305653833</v>
+        <v>0.1091503056538366</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2916715419455999</v>
+        <v>0.29167154194561</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2443536396338828</v>
+        <v>0.2443536396338829</v>
       </c>
       <c r="V57" t="n">
         <v>0.05406556327691583</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002082600000008483</v>
+        <v>0.001733299999999716</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5174,13 +5174,13 @@
         <v>0.01218127654945595</v>
       </c>
       <c r="F58" t="n">
-        <v>9.931670074837394</v>
+        <v>9.93167007483739</v>
       </c>
       <c r="G58" t="n">
         <v>177.3417584956742</v>
       </c>
       <c r="H58" t="n">
-        <v>6.934720122017056</v>
+        <v>6.934720122017055</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>1.850342856819934</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.005343178275890413</v>
+        <v>0.005343178275890433</v>
       </c>
       <c r="R58" t="n">
-        <v>0.06371114880131565</v>
+        <v>0.06371114880131563</v>
       </c>
       <c r="S58" t="n">
-        <v>0.0203163915464985</v>
+        <v>0.02031639154649868</v>
       </c>
       <c r="T58" t="n">
-        <v>0.06172826516419685</v>
+        <v>0.06172826516419687</v>
       </c>
       <c r="U58" t="n">
-        <v>0.2392779086623837</v>
+        <v>0.2392779086623832</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1112301085202009</v>
+        <v>0.1112301085202151</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.005360100000004309</v>
+        <v>0.004436699999999405</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5256,7 +5256,7 @@
         <v>359.9549193904595</v>
       </c>
       <c r="F59" t="n">
-        <v>9.823780572419452</v>
+        <v>9.82378057241945</v>
       </c>
       <c r="G59" t="n">
         <v>15.28444690969495</v>
@@ -5286,25 +5286,25 @@
         <v>12.21852686872379</v>
       </c>
       <c r="P59" t="n">
-        <v>14.55285224457313</v>
+        <v>14.55285224457312</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01130983555165149</v>
+        <v>0.01130983555165137</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1126918645166193</v>
+        <v>0.1126918645166191</v>
       </c>
       <c r="S59" t="n">
-        <v>0.05072719129937726</v>
+        <v>0.05072719129937706</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1826214305460595</v>
+        <v>0.1826214305460568</v>
       </c>
       <c r="U59" t="n">
-        <v>0.2727230262366478</v>
+        <v>0.2727230262366476</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1643025691478877</v>
+        <v>0.1643025691478873</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002025299999999675</v>
+        <v>0.002781500000001103</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5338,13 +5338,13 @@
         <v>0.0008149341867449896</v>
       </c>
       <c r="F60" t="n">
-        <v>9.721461357323779</v>
+        <v>9.721461357323783</v>
       </c>
       <c r="G60" t="n">
-        <v>64.96636662832243</v>
+        <v>64.96636662832245</v>
       </c>
       <c r="H60" t="n">
-        <v>8.193900708238379</v>
+        <v>8.193900708238385</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5365,28 +5365,28 @@
         <v>15.51473424919647</v>
       </c>
       <c r="O60" t="n">
-        <v>41.81921143151693</v>
+        <v>41.81921143151694</v>
       </c>
       <c r="P60" t="n">
-        <v>15.1167560933922</v>
+        <v>15.11675609339221</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01293699563512881</v>
+        <v>0.01293699563512903</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1094628413870671</v>
+        <v>0.1094628413870705</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1424426537554515</v>
+        <v>0.1424426537554579</v>
       </c>
       <c r="T60" t="n">
-        <v>0.07087160591155765</v>
+        <v>0.07087160591155947</v>
       </c>
       <c r="U60" t="n">
-        <v>0.2350645257591224</v>
+        <v>0.2350645257591226</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1638780508362482</v>
+        <v>0.1638780508362458</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002280400000003624</v>
+        <v>0.001935699999998874</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5447,28 +5447,28 @@
         <v>3.059300117780022</v>
       </c>
       <c r="O61" t="n">
-        <v>56.63935482382843</v>
+        <v>56.63935482382841</v>
       </c>
       <c r="P61" t="n">
         <v>2.995724754553256</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01012992419060559</v>
+        <v>0.01012992419060532</v>
       </c>
       <c r="R61" t="n">
-        <v>0.05658693543173971</v>
+        <v>0.05658693543173817</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04595403503118628</v>
+        <v>0.04595403503118439</v>
       </c>
       <c r="T61" t="n">
-        <v>0.02949057449889884</v>
+        <v>0.02949057449889876</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2509966106241022</v>
+        <v>0.2509966106241023</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1053919866865631</v>
+        <v>0.1053919866865707</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004322999999999411</v>
+        <v>0.003698599999999885</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5508,7 +5508,7 @@
         <v>54.47826734415791</v>
       </c>
       <c r="H62" t="n">
-        <v>5.381023272466709</v>
+        <v>5.381023272466707</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>12.9621035329798</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0125154559346085</v>
+        <v>0.01251545593460863</v>
       </c>
       <c r="R62" t="n">
-        <v>0.08895833238663407</v>
+        <v>0.08895833238663588</v>
       </c>
       <c r="S62" t="n">
-        <v>0.08643027192946398</v>
+        <v>0.08643027192946688</v>
       </c>
       <c r="T62" t="n">
-        <v>0.08990490406107297</v>
+        <v>0.08990490406107431</v>
       </c>
       <c r="U62" t="n">
-        <v>0.2678460757605095</v>
+        <v>0.2678460757605093</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1371561012244654</v>
+        <v>0.1371561012244645</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002073400000000447</v>
+        <v>0.001680600000000254</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5587,10 +5587,10 @@
         <v>10.06715308111008</v>
       </c>
       <c r="G63" t="n">
-        <v>148.3496979408781</v>
+        <v>148.3496979408782</v>
       </c>
       <c r="H63" t="n">
-        <v>5.233541809924127</v>
+        <v>5.233541809924125</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>64.7920756276807</v>
       </c>
       <c r="P63" t="n">
-        <v>4.941536435465719</v>
+        <v>4.941536435465717</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01135103853572798</v>
+        <v>0.01135103853572708</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08921467236253322</v>
+        <v>0.0892146723625156</v>
       </c>
       <c r="S63" t="n">
-        <v>0.07534210825700915</v>
+        <v>0.07534210825699598</v>
       </c>
       <c r="T63" t="n">
-        <v>0.04912798382415688</v>
+        <v>0.04912798382414767</v>
       </c>
       <c r="U63" t="n">
         <v>0.2578042724867619</v>
       </c>
       <c r="V63" t="n">
-        <v>0.07162960186467701</v>
+        <v>0.07162960186467411</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004564600000009023</v>
+        <v>0.003757500000000746</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.204822112009865</v>
       </c>
       <c r="H64" t="n">
-        <v>8.659405527749412</v>
+        <v>8.659405527749415</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,16 +5696,16 @@
         <v>7.309970987521542</v>
       </c>
       <c r="P64" t="n">
-        <v>18.08963757497936</v>
+        <v>18.08963757497937</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01175494946290709</v>
+        <v>0.01175494946290708</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1776081828856517</v>
+        <v>0.1776081828856492</v>
       </c>
       <c r="S64" t="n">
-        <v>0.0486446049435455</v>
+        <v>0.04864460494354603</v>
       </c>
       <c r="T64" t="n">
         <v>0.2954708539781144</v>
@@ -5714,7 +5714,7 @@
         <v>0.2234445432924723</v>
       </c>
       <c r="V64" t="n">
-        <v>0.07069476981457461</v>
+        <v>0.07069476981457327</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001887699999997494</v>
+        <v>0.001462400000001196</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.82724409962219</v>
       </c>
       <c r="H65" t="n">
-        <v>7.846950085115616</v>
+        <v>7.846950085115619</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>60.66341244433588</v>
       </c>
       <c r="P65" t="n">
-        <v>11.97945332250423</v>
+        <v>11.97945332250424</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01304678078092159</v>
+        <v>0.01304678078092126</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1347032742872881</v>
+        <v>0.1347032742872813</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1704923369911506</v>
+        <v>0.1704923369911412</v>
       </c>
       <c r="T65" t="n">
-        <v>0.04338973818504138</v>
+        <v>0.04338973818504076</v>
       </c>
       <c r="U65" t="n">
-        <v>0.239828079376305</v>
+        <v>0.2398280793763049</v>
       </c>
       <c r="V65" t="n">
-        <v>0.04989702103129023</v>
+        <v>0.04989702103129159</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004162100000002056</v>
+        <v>0.003359500000000182</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5836,7 +5836,7 @@
         <v>68.36768529183838</v>
       </c>
       <c r="H66" t="n">
-        <v>9.745657951179773</v>
+        <v>9.745657951179771</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5863,22 +5863,22 @@
         <v>16.81348580660811</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01359246131464862</v>
+        <v>0.01359246131464911</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1311370418194371</v>
+        <v>0.1311370418194515</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1850199310820428</v>
+        <v>0.185019931082065</v>
       </c>
       <c r="T66" t="n">
-        <v>0.07094707750388113</v>
+        <v>0.07094707750388526</v>
       </c>
       <c r="U66" t="n">
-        <v>0.2699571833283755</v>
+        <v>0.2699571833283754</v>
       </c>
       <c r="V66" t="n">
-        <v>0.02502972933748744</v>
+        <v>0.02502972933748755</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002670699999995918</v>
+        <v>0.001782000000000394</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,7 +5915,7 @@
         <v>9.980829405504773</v>
       </c>
       <c r="G67" t="n">
-        <v>38.99589191544658</v>
+        <v>38.99589191544659</v>
       </c>
       <c r="H67" t="n">
         <v>3.372846679741707</v>
@@ -5939,22 +5939,22 @@
         <v>11.16212898988536</v>
       </c>
       <c r="O67" t="n">
-        <v>19.53553429381023</v>
+        <v>19.53553429381024</v>
       </c>
       <c r="P67" t="n">
         <v>11.15205138377434</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01125382825601297</v>
+        <v>0.01125382825601304</v>
       </c>
       <c r="R67" t="n">
-        <v>0.07917123332187714</v>
+        <v>0.07917123332187766</v>
       </c>
       <c r="S67" t="n">
-        <v>0.05287274628762827</v>
+        <v>0.05287274628762981</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1117540769646985</v>
+        <v>0.1117540769647001</v>
       </c>
       <c r="U67" t="n">
         <v>0.2480573034584221</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002141999999992095</v>
+        <v>0.001571600000000117</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.9576723306775</v>
       </c>
       <c r="F68" t="n">
-        <v>9.937347839131224</v>
+        <v>9.937347839131222</v>
       </c>
       <c r="G68" t="n">
-        <v>27.74072420885426</v>
+        <v>27.74072420885425</v>
       </c>
       <c r="H68" t="n">
-        <v>4.518275831894907</v>
+        <v>4.518275831894908</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6021,28 +6021,28 @@
         <v>12.83113260813786</v>
       </c>
       <c r="O68" t="n">
-        <v>16.91994695615964</v>
+        <v>16.91994695615963</v>
       </c>
       <c r="P68" t="n">
         <v>12.66810610679018</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01142498713758739</v>
+        <v>0.01142498713758746</v>
       </c>
       <c r="R68" t="n">
-        <v>0.08997792111200505</v>
+        <v>0.0899779211120043</v>
       </c>
       <c r="S68" t="n">
-        <v>0.05443527293567615</v>
+        <v>0.05443527293567694</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1352620651911565</v>
+        <v>0.1352620651911579</v>
       </c>
       <c r="U68" t="n">
         <v>0.2453307033618931</v>
       </c>
       <c r="V68" t="n">
-        <v>0.08113581497446617</v>
+        <v>0.0811358149744657</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002188600000010865</v>
+        <v>0.001814599999999444</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6073,7 +6073,7 @@
         <v>13.30627932709631</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1368586758439113</v>
+        <v>0.1368586758438986</v>
       </c>
       <c r="F69" t="n">
         <v>9.758913163561074</v>
@@ -6082,7 +6082,7 @@
         <v>98.10245667013081</v>
       </c>
       <c r="H69" t="n">
-        <v>12.85637378174696</v>
+        <v>12.85637378174697</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>17.71985515776622</v>
       </c>
       <c r="O69" t="n">
-        <v>73.21183221159367</v>
+        <v>73.21183221159369</v>
       </c>
       <c r="P69" t="n">
-        <v>17.20050845660739</v>
+        <v>17.2005084566074</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0138746882624363</v>
+        <v>0.01387468826243774</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2217038319950479</v>
+        <v>0.2217038319950986</v>
       </c>
       <c r="S69" t="n">
-        <v>0.3849588223954633</v>
+        <v>0.3849588223955528</v>
       </c>
       <c r="T69" t="n">
-        <v>0.08806533331886389</v>
+        <v>0.08806533331888144</v>
       </c>
       <c r="U69" t="n">
         <v>0.2440260465889222</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1595863001678332</v>
+        <v>0.1595863001678235</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004326800000001185</v>
+        <v>0.003301399999999788</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6191,19 +6191,19 @@
         <v>11.05858186580762</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0114012666126227</v>
+        <v>0.01140126661262291</v>
       </c>
       <c r="R70" t="n">
-        <v>0.07637440896417307</v>
+        <v>0.0763744089641727</v>
       </c>
       <c r="S70" t="n">
-        <v>0.057772514773784</v>
+        <v>0.05777251477378511</v>
       </c>
       <c r="T70" t="n">
-        <v>0.09977352014793076</v>
+        <v>0.0997735201479333</v>
       </c>
       <c r="U70" t="n">
-        <v>0.2515902309411835</v>
+        <v>0.2515902309411837</v>
       </c>
       <c r="V70" t="n">
         <v>0.03759959020113092</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002138700000003269</v>
+        <v>0.001912599999998932</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.1100866588976156</v>
       </c>
       <c r="F71" t="n">
-        <v>9.696450921515803</v>
+        <v>9.696450921515799</v>
       </c>
       <c r="G71" t="n">
         <v>52.94828818627261</v>
       </c>
       <c r="H71" t="n">
-        <v>12.20580146273944</v>
+        <v>12.20580146273943</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
@@ -6270,25 +6270,25 @@
         <v>38.99734618246978</v>
       </c>
       <c r="P71" t="n">
-        <v>20.46564016802614</v>
+        <v>20.46564016802613</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0139356153705411</v>
+        <v>0.01393561537054127</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1348085627954155</v>
+        <v>0.1348085627954113</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2000932822173199</v>
+        <v>0.2000932822173159</v>
       </c>
       <c r="T71" t="n">
         <v>0.125470560219301</v>
       </c>
       <c r="U71" t="n">
-        <v>0.2613862157372213</v>
+        <v>0.2613862157372212</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1950530143201902</v>
+        <v>0.1950530143201918</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002288399999997637</v>
+        <v>0.001963500000000451</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>166.8874022461006</v>
       </c>
       <c r="H72" t="n">
-        <v>13.53107082870138</v>
+        <v>13.53107082870137</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>149.9738360697143</v>
       </c>
       <c r="P72" t="n">
-        <v>9.696104338220943</v>
+        <v>9.696104338220939</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.005544731293968013</v>
+        <v>0.005544731293968008</v>
       </c>
       <c r="R72" t="n">
-        <v>0.0626144449284214</v>
+        <v>0.06261444492842141</v>
       </c>
       <c r="S72" t="n">
-        <v>0.03501113229665838</v>
+        <v>0.03501113229665835</v>
       </c>
       <c r="T72" t="n">
         <v>0.09764522012165823</v>
       </c>
       <c r="U72" t="n">
-        <v>0.2531169985766256</v>
+        <v>0.2531169985766257</v>
       </c>
       <c r="V72" t="n">
-        <v>0.03559093116589003</v>
+        <v>0.03559093116588843</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005796500000002425</v>
+        <v>0.004498200000000452</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6407,10 +6407,10 @@
         <v>10.07799745709838</v>
       </c>
       <c r="G73" t="n">
-        <v>33.73760938254266</v>
+        <v>33.73760938254267</v>
       </c>
       <c r="H73" t="n">
-        <v>7.526251756171001</v>
+        <v>7.526251756171</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>22.46923958694043</v>
       </c>
       <c r="P73" t="n">
-        <v>16.20212449806226</v>
+        <v>16.20212449806225</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01298893773984038</v>
+        <v>0.01298893773984043</v>
       </c>
       <c r="R73" t="n">
-        <v>0.103852132038456</v>
+        <v>0.1038521320384561</v>
       </c>
       <c r="S73" t="n">
-        <v>0.08866582772446263</v>
+        <v>0.08866582772446316</v>
       </c>
       <c r="T73" t="n">
-        <v>0.1407695109393271</v>
+        <v>0.1407695109393282</v>
       </c>
       <c r="U73" t="n">
         <v>0.2447978072688838</v>
       </c>
       <c r="V73" t="n">
-        <v>0.05369275481719036</v>
+        <v>0.05369275481719101</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00212659999999687</v>
+        <v>0.002175800000001615</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,10 +6486,10 @@
         <v>359.9629250912357</v>
       </c>
       <c r="F74" t="n">
-        <v>9.960817188072715</v>
+        <v>9.960817188072712</v>
       </c>
       <c r="G74" t="n">
-        <v>19.15835371808398</v>
+        <v>19.15835371808396</v>
       </c>
       <c r="H74" t="n">
         <v>11.34056776494975</v>
@@ -6519,22 +6519,22 @@
         <v>20.96937413758951</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01351481940947102</v>
+        <v>0.01351481940947104</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1363150218989535</v>
+        <v>0.1363150218989539</v>
       </c>
       <c r="S74" t="n">
-        <v>0.09081673187624559</v>
+        <v>0.09081673187624671</v>
       </c>
       <c r="T74" t="n">
-        <v>0.2278348855551788</v>
+        <v>0.2278348855551799</v>
       </c>
       <c r="U74" t="n">
-        <v>0.252313336871976</v>
+        <v>0.2523133368719759</v>
       </c>
       <c r="V74" t="n">
-        <v>0.04001356693234773</v>
+        <v>0.04001356693234884</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002163400000000593</v>
+        <v>0.001627100000000326</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6574,7 +6574,7 @@
         <v>115.7306600469841</v>
       </c>
       <c r="H75" t="n">
-        <v>9.858617169489865</v>
+        <v>9.858617169489859</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>77.92560972967188</v>
       </c>
       <c r="P75" t="n">
-        <v>12.08429061166728</v>
+        <v>12.08429061166727</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0141306305247859</v>
+        <v>0.01413063052478594</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2093457521266423</v>
+        <v>0.2093457521266318</v>
       </c>
       <c r="S75" t="n">
-        <v>0.2670382553632002</v>
+        <v>0.267038255363189</v>
       </c>
       <c r="T75" t="n">
-        <v>0.1289439714158161</v>
+        <v>0.1289439714158091</v>
       </c>
       <c r="U75" t="n">
-        <v>0.2276212507203811</v>
+        <v>0.2276212507203812</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1917477548857939</v>
+        <v>0.191747754885792</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004753200000010338</v>
+        <v>0.003858200000001588</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6650,10 +6650,10 @@
         <v>359.9535522255212</v>
       </c>
       <c r="F76" t="n">
-        <v>9.990121820969273</v>
+        <v>9.99012182096928</v>
       </c>
       <c r="G76" t="n">
-        <v>36.41297915145648</v>
+        <v>36.41297915145649</v>
       </c>
       <c r="H76" t="n">
         <v>12.37585874119704</v>
@@ -6680,25 +6680,25 @@
         <v>27.30803822102301</v>
       </c>
       <c r="P76" t="n">
-        <v>21.74914085256956</v>
+        <v>21.74914085256957</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0143565095162899</v>
+        <v>0.01435650951629</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1326456715649592</v>
+        <v>0.1326456715649628</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1528884131108348</v>
+        <v>0.1528884131108386</v>
       </c>
       <c r="T76" t="n">
-        <v>0.177973037636075</v>
+        <v>0.1779730376360781</v>
       </c>
       <c r="U76" t="n">
-        <v>0.2276517857738752</v>
+        <v>0.2276517857738754</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01650624582731572</v>
+        <v>0.0165062458273149</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002347799999995459</v>
+        <v>0.001863600000000076</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6738,7 +6738,7 @@
         <v>102.2165087056952</v>
       </c>
       <c r="H77" t="n">
-        <v>3.910876942897829</v>
+        <v>3.910876942897828</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>41.37091514400748</v>
       </c>
       <c r="P77" t="n">
-        <v>8.685574096337652</v>
+        <v>8.68557409633765</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01168690875703548</v>
+        <v>0.01168690875703523</v>
       </c>
       <c r="R77" t="n">
-        <v>0.07592205541845563</v>
+        <v>0.07592205541845751</v>
       </c>
       <c r="S77" t="n">
-        <v>0.07596489702154477</v>
+        <v>0.07596489702154378</v>
       </c>
       <c r="T77" t="n">
-        <v>0.04344445450561936</v>
+        <v>0.04344445450561881</v>
       </c>
       <c r="U77" t="n">
-        <v>0.2397192893803152</v>
+        <v>0.2397192893803153</v>
       </c>
       <c r="V77" t="n">
-        <v>0.1513190318207296</v>
+        <v>0.1513190318207286</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002788600000002361</v>
+        <v>0.002086300000000207</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6814,13 +6814,13 @@
         <v>359.9598689661444</v>
       </c>
       <c r="F78" t="n">
-        <v>10.0159144010677</v>
+        <v>10.01591440106771</v>
       </c>
       <c r="G78" t="n">
-        <v>56.09275854278016</v>
+        <v>56.09275854278017</v>
       </c>
       <c r="H78" t="n">
-        <v>12.85396942654138</v>
+        <v>12.85396942654139</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6841,28 +6841,28 @@
         <v>21.21280471567252</v>
       </c>
       <c r="O78" t="n">
-        <v>41.10750888374635</v>
+        <v>41.10750888374636</v>
       </c>
       <c r="P78" t="n">
-        <v>21.24052735909562</v>
+        <v>21.24052735909563</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01455827985933048</v>
+        <v>0.01455827985933017</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1481650007197202</v>
+        <v>0.1481650007197114</v>
       </c>
       <c r="S78" t="n">
-        <v>0.2270035481049082</v>
+        <v>0.2270035481048934</v>
       </c>
       <c r="T78" t="n">
-        <v>0.1259083346062919</v>
+        <v>0.1259083346062853</v>
       </c>
       <c r="U78" t="n">
-        <v>0.2383989924635324</v>
+        <v>0.2383989924635321</v>
       </c>
       <c r="V78" t="n">
-        <v>0.03083158114670811</v>
+        <v>0.03083158114670971</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002331600000005096</v>
+        <v>0.001723700000001216</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6902,7 +6902,7 @@
         <v>165.499968217526</v>
       </c>
       <c r="H79" t="n">
-        <v>10.57295601887803</v>
+        <v>10.57295601887804</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6926,25 +6926,25 @@
         <v>138.9685963886095</v>
       </c>
       <c r="P79" t="n">
-        <v>6.625276445704024</v>
+        <v>6.625276445704025</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.005706896563739349</v>
+        <v>0.00570689656373933</v>
       </c>
       <c r="R79" t="n">
-        <v>0.07975248098671779</v>
+        <v>0.07975248098666789</v>
       </c>
       <c r="S79" t="n">
-        <v>0.04001429839940324</v>
+        <v>0.0400142983993793</v>
       </c>
       <c r="T79" t="n">
-        <v>0.1036722565843894</v>
+        <v>0.1036722565843245</v>
       </c>
       <c r="U79" t="n">
         <v>0.2489269626200612</v>
       </c>
       <c r="V79" t="n">
-        <v>0.05815271131238255</v>
+        <v>0.05815271131239613</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005133299999997121</v>
+        <v>0.004515400000000724</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -6981,10 +6981,10 @@
         <v>10.22401012500496</v>
       </c>
       <c r="G80" t="n">
-        <v>9.05360872528747</v>
+        <v>9.053608725287457</v>
       </c>
       <c r="H80" t="n">
-        <v>11.09540213480944</v>
+        <v>11.09540213480945</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>8.912235848789908</v>
       </c>
       <c r="P80" t="n">
-        <v>21.00990333267506</v>
+        <v>21.00990333267507</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01278290749942089</v>
+        <v>0.01278290749942076</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1781766979950885</v>
+        <v>0.178176697995089</v>
       </c>
       <c r="S80" t="n">
-        <v>0.06358890267778512</v>
+        <v>0.06358890267778419</v>
       </c>
       <c r="T80" t="n">
-        <v>0.3072289477374759</v>
+        <v>0.3072289477374706</v>
       </c>
       <c r="U80" t="n">
-        <v>0.2510334890485665</v>
+        <v>0.2510334890485668</v>
       </c>
       <c r="V80" t="n">
-        <v>0.06673029219754122</v>
+        <v>0.0667302921975403</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002002300000000901</v>
+        <v>0.001404100000000241</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7093,19 +7093,19 @@
         <v>13.87385054726748</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01347229305525733</v>
+        <v>0.0134722930552582</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1388024177924105</v>
+        <v>0.1388024177924367</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1904535399353005</v>
+        <v>0.1904535399353353</v>
       </c>
       <c r="T81" t="n">
-        <v>0.03736025070184191</v>
+        <v>0.03736025070184305</v>
       </c>
       <c r="U81" t="n">
-        <v>0.2360818112283101</v>
+        <v>0.23608181122831</v>
       </c>
       <c r="V81" t="n">
         <v>0.09255311197028809</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003337999999999397</v>
+        <v>0.002809499999999687</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7169,25 +7169,25 @@
         <v>16.15039452812126</v>
       </c>
       <c r="O82" t="n">
-        <v>66.6035910679484</v>
+        <v>66.60359106794839</v>
       </c>
       <c r="P82" t="n">
         <v>16.35169388485</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01428449600101578</v>
+        <v>0.0142844960010152</v>
       </c>
       <c r="R82" t="n">
-        <v>0.192835307355035</v>
+        <v>0.1928353073550209</v>
       </c>
       <c r="S82" t="n">
-        <v>0.3046093982030986</v>
+        <v>0.3046093982030745</v>
       </c>
       <c r="T82" t="n">
-        <v>0.05540337624548532</v>
+        <v>0.0554033762454833</v>
       </c>
       <c r="U82" t="n">
-        <v>0.2385379936477723</v>
+        <v>0.238537993647772</v>
       </c>
       <c r="V82" t="n">
         <v>0.09767694545272364</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004842599999989261</v>
+        <v>0.003422699999999779</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7230,7 +7230,7 @@
         <v>64.88112036635104</v>
       </c>
       <c r="H83" t="n">
-        <v>7.086079369032578</v>
+        <v>7.086079369032579</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7257,22 +7257,22 @@
         <v>14.26818058997321</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01308980073037707</v>
+        <v>0.01308980073037733</v>
       </c>
       <c r="R83" t="n">
-        <v>0.105958394214893</v>
+        <v>0.1059583942148932</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1239428399653646</v>
+        <v>0.1239428399653678</v>
       </c>
       <c r="T83" t="n">
-        <v>0.07414742139014441</v>
+        <v>0.07414742139014618</v>
       </c>
       <c r="U83" t="n">
         <v>0.2528598838589424</v>
       </c>
       <c r="V83" t="n">
-        <v>0.06461103739340529</v>
+        <v>0.06461103739340539</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004781600000001163</v>
+        <v>0.001787000000000205</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.9132486957228</v>
       </c>
       <c r="F84" t="n">
-        <v>9.96176292306804</v>
+        <v>9.961762923068044</v>
       </c>
       <c r="G84" t="n">
         <v>49.28344558879191</v>
       </c>
       <c r="H84" t="n">
-        <v>10.80265208634075</v>
+        <v>10.80265208634076</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>34.79617170326127</v>
       </c>
       <c r="P84" t="n">
-        <v>19.24225820819686</v>
+        <v>19.24225820819687</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01400931853081341</v>
+        <v>0.01400931853081358</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1259994357984097</v>
+        <v>0.1259994357983996</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1638363780805459</v>
+        <v>0.1638363780805363</v>
       </c>
       <c r="T84" t="n">
-        <v>0.1251169730508346</v>
+        <v>0.1251169730508331</v>
       </c>
       <c r="U84" t="n">
-        <v>0.269486531984337</v>
+        <v>0.2694865319843366</v>
       </c>
       <c r="V84" t="n">
-        <v>0.05339699918784027</v>
+        <v>0.05339699918784173</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003083599999996522</v>
+        <v>0.002731100000000097</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,10 +7388,10 @@
         <v>0.01054588989881041</v>
       </c>
       <c r="F85" t="n">
-        <v>9.87639579374393</v>
+        <v>9.876395793743937</v>
       </c>
       <c r="G85" t="n">
-        <v>46.0940077661712</v>
+        <v>46.09400776617122</v>
       </c>
       <c r="H85" t="n">
         <v>11.02760135334342</v>
@@ -7415,28 +7415,28 @@
         <v>19.91760304290331</v>
       </c>
       <c r="O85" t="n">
-        <v>33.07888831569385</v>
+        <v>33.07888831569387</v>
       </c>
       <c r="P85" t="n">
         <v>19.61631585985235</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01391907023929253</v>
+        <v>0.01391907023929259</v>
       </c>
       <c r="R85" t="n">
-        <v>0.1247911372843445</v>
+        <v>0.1247911372843473</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1591714240837096</v>
+        <v>0.1591714240837148</v>
       </c>
       <c r="T85" t="n">
-        <v>0.13456088295227</v>
+        <v>0.1345608829522735</v>
       </c>
       <c r="U85" t="n">
-        <v>0.247501293352069</v>
+        <v>0.2475012933520689</v>
       </c>
       <c r="V85" t="n">
-        <v>0.0827267527896654</v>
+        <v>0.0827267527896636</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002486199999992778</v>
+        <v>0.001878700000000677</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.07261951651757</v>
       </c>
       <c r="H86" t="n">
-        <v>7.421096737437657</v>
+        <v>7.421096737437655</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>8.544548633890422</v>
       </c>
       <c r="P86" t="n">
-        <v>16.46831607895909</v>
+        <v>16.46831607895908</v>
       </c>
       <c r="Q86" t="n">
         <v>0.01160529544509317</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1521107397088371</v>
+        <v>0.1521107397088385</v>
       </c>
       <c r="S86" t="n">
-        <v>0.04769917457723968</v>
+        <v>0.04769917457723952</v>
       </c>
       <c r="T86" t="n">
-        <v>0.2510777732203215</v>
+        <v>0.2510777732203222</v>
       </c>
       <c r="U86" t="n">
-        <v>0.2793474989024805</v>
+        <v>0.2793474989024803</v>
       </c>
       <c r="V86" t="n">
-        <v>0.03666889964492662</v>
+        <v>0.03666889964492685</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001803099999989399</v>
+        <v>0.001422600000001495</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.6163114439292</v>
       </c>
       <c r="H87" t="n">
-        <v>9.226804865610189</v>
+        <v>9.226804865610186</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>11.81175051977503</v>
       </c>
       <c r="O87" t="n">
-        <v>73.52841881031857</v>
+        <v>73.52841881031858</v>
       </c>
       <c r="P87" t="n">
         <v>11.95594266922337</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.01348264008661411</v>
+        <v>0.01348264008661456</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1811276468727893</v>
+        <v>0.1811276468728087</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2336856911532703</v>
+        <v>0.2336856911532937</v>
       </c>
       <c r="T87" t="n">
-        <v>0.09558097584581036</v>
+        <v>0.09558097584582075</v>
       </c>
       <c r="U87" t="n">
-        <v>0.2550954428172276</v>
+        <v>0.2550954428172274</v>
       </c>
       <c r="V87" t="n">
-        <v>0.05514431522749281</v>
+        <v>0.05514431522748991</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.006687400000004118</v>
+        <v>0.005330400000000068</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7640,7 +7640,7 @@
         <v>36.87790759926398</v>
       </c>
       <c r="H88" t="n">
-        <v>5.393647637393884</v>
+        <v>5.393647637393885</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7661,28 +7661,28 @@
         <v>13.65786460130007</v>
       </c>
       <c r="O88" t="n">
-        <v>21.89073049981291</v>
+        <v>21.89073049981292</v>
       </c>
       <c r="P88" t="n">
         <v>13.55138456129583</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01216995053702069</v>
+        <v>0.01216995053702075</v>
       </c>
       <c r="R88" t="n">
-        <v>0.08970440858907947</v>
+        <v>0.08970440858907899</v>
       </c>
       <c r="S88" t="n">
-        <v>0.0706022283233454</v>
+        <v>0.07060222832334602</v>
       </c>
       <c r="T88" t="n">
-        <v>0.1204884632868647</v>
+        <v>0.1204884632868654</v>
       </c>
       <c r="U88" t="n">
-        <v>0.2533196530981424</v>
+        <v>0.2533196530981425</v>
       </c>
       <c r="V88" t="n">
-        <v>0.07546087279092983</v>
+        <v>0.07546087279092943</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.001992599999994127</v>
+        <v>0.001651900000000595</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.1083045240801132</v>
       </c>
       <c r="F89" t="n">
-        <v>9.479780928877354</v>
+        <v>9.479780928877346</v>
       </c>
       <c r="G89" t="n">
         <v>118.04196758179</v>
       </c>
       <c r="H89" t="n">
-        <v>13.47158749594858</v>
+        <v>13.47158749594857</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>92.72802117733035</v>
       </c>
       <c r="P89" t="n">
-        <v>15.47399392761833</v>
+        <v>15.47399392761832</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01277760372028418</v>
+        <v>0.01277760372028605</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2653311415633264</v>
+        <v>0.2653311415634186</v>
       </c>
       <c r="S89" t="n">
-        <v>0.4334938292647841</v>
+        <v>0.4334938292649332</v>
       </c>
       <c r="T89" t="n">
-        <v>0.2458425990189746</v>
+        <v>0.2458425990190599</v>
       </c>
       <c r="U89" t="n">
-        <v>0.2510028890451467</v>
+        <v>0.2510028890451469</v>
       </c>
       <c r="V89" t="n">
-        <v>0.2853355922593939</v>
+        <v>0.2853355922593973</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006769299999987766</v>
+        <v>0.004312000000000538</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7831,16 +7831,16 @@
         <v>11.56825866047493</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01385549570755144</v>
+        <v>0.01385549570755306</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1987874255521214</v>
+        <v>0.1987874255521666</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2465366803145872</v>
+        <v>0.2465366803146429</v>
       </c>
       <c r="T90" t="n">
-        <v>0.1206705426351689</v>
+        <v>0.1206705426351956</v>
       </c>
       <c r="U90" t="n">
         <v>0.2490648892013976</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004731900000010114</v>
+        <v>0.004027600000000575</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7886,7 +7886,7 @@
         <v>90.38502080017659</v>
       </c>
       <c r="H91" t="n">
-        <v>6.002502853552346</v>
+        <v>6.002502853552342</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7907,28 +7907,28 @@
         <v>11.23051578470421</v>
       </c>
       <c r="O91" t="n">
-        <v>48.82221180728199</v>
+        <v>48.822211807282</v>
       </c>
       <c r="P91" t="n">
         <v>11.15009153268531</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01234115316016075</v>
+        <v>0.01234115316016079</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1010226555456266</v>
+        <v>0.1010226555456232</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1175259980408468</v>
+        <v>0.1175259980408443</v>
       </c>
       <c r="T91" t="n">
-        <v>0.03974255314897984</v>
+        <v>0.03974255314897999</v>
       </c>
       <c r="U91" t="n">
-        <v>0.2598986123253975</v>
+        <v>0.2598986123253976</v>
       </c>
       <c r="V91" t="n">
-        <v>0.05719352046111573</v>
+        <v>0.05719352046111825</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002945100000005141</v>
+        <v>0.002279700000000773</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7968,7 +7968,7 @@
         <v>26.84846100581676</v>
       </c>
       <c r="H92" t="n">
-        <v>4.990999520015625</v>
+        <v>4.990999520015623</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>17.07847571549534</v>
       </c>
       <c r="P92" t="n">
-        <v>13.16859017838232</v>
+        <v>13.16859017838231</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.01151920828264206</v>
+        <v>0.01151920828264184</v>
       </c>
       <c r="R92" t="n">
-        <v>0.09156755796908057</v>
+        <v>0.09156755796908081</v>
       </c>
       <c r="S92" t="n">
-        <v>0.05678615404449007</v>
+        <v>0.05678615404448958</v>
       </c>
       <c r="T92" t="n">
-        <v>0.138115283429043</v>
+        <v>0.1381152834290396</v>
       </c>
       <c r="U92" t="n">
-        <v>0.2678423170572332</v>
+        <v>0.2678423170572334</v>
       </c>
       <c r="V92" t="n">
-        <v>0.08765010234014979</v>
+        <v>0.08765010234014911</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002001699999993889</v>
+        <v>0.001860699999999937</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9222034759364</v>
       </c>
       <c r="F93" t="n">
-        <v>9.917257177240048</v>
+        <v>9.917257177240051</v>
       </c>
       <c r="G93" t="n">
         <v>36.10792407573129</v>
       </c>
       <c r="H93" t="n">
-        <v>6.917139000684402</v>
+        <v>6.917139000684407</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>23.35594308747141</v>
       </c>
       <c r="P93" t="n">
-        <v>15.25715872074201</v>
+        <v>15.25715872074202</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01261918875909607</v>
+        <v>0.01261918875909649</v>
       </c>
       <c r="R93" t="n">
-        <v>0.09702652648251982</v>
+        <v>0.09702652648252083</v>
       </c>
       <c r="S93" t="n">
-        <v>0.08453531154438085</v>
+        <v>0.08453531154438676</v>
       </c>
       <c r="T93" t="n">
-        <v>0.1276329527535</v>
+        <v>0.1276329527535071</v>
       </c>
       <c r="U93" t="n">
         <v>0.2351662572647224</v>
       </c>
       <c r="V93" t="n">
-        <v>0.02727469521104514</v>
+        <v>0.02727469521104296</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002108100000000945</v>
+        <v>0.001658300000000779</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8159,13 +8159,13 @@
         <v>9.291423023954051</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.006301976309229827</v>
+        <v>0.006301976309229815</v>
       </c>
       <c r="R94" t="n">
-        <v>0.08945930608135469</v>
+        <v>0.08945930608135477</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06099114126745171</v>
+        <v>0.06099114126745143</v>
       </c>
       <c r="T94" t="n">
         <v>0.1274964897737104</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005181100000001493</v>
+        <v>0.00424180000000085</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8208,13 +8208,13 @@
         <v>359.9557240428117</v>
       </c>
       <c r="F95" t="n">
-        <v>9.996063721209348</v>
+        <v>9.996063721209355</v>
       </c>
       <c r="G95" t="n">
         <v>109.1050158067925</v>
       </c>
       <c r="H95" t="n">
-        <v>10.90503071856744</v>
+        <v>10.90503071856745</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8238,25 +8238,25 @@
         <v>77.10681434761888</v>
       </c>
       <c r="P95" t="n">
-        <v>13.87788381229555</v>
+        <v>13.87788381229556</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.01408601191303505</v>
+        <v>0.01408601191303249</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2159100978712859</v>
+        <v>0.2159100978711999</v>
       </c>
       <c r="S95" t="n">
-        <v>0.3127946590950747</v>
+        <v>0.3127946590949523</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1219055746189845</v>
+        <v>0.1219055746189367</v>
       </c>
       <c r="U95" t="n">
         <v>0.2254450021909445</v>
       </c>
       <c r="V95" t="n">
-        <v>0.009985902500569462</v>
+        <v>0.009985902500572783</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.006791699999993739</v>
+        <v>0.005332700000000301</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8290,13 +8290,13 @@
         <v>359.9941190261844</v>
       </c>
       <c r="F96" t="n">
-        <v>9.961081709653232</v>
+        <v>9.96108170965322</v>
       </c>
       <c r="G96" t="n">
         <v>129.3847122770379</v>
       </c>
       <c r="H96" t="n">
-        <v>10.24321907370766</v>
+        <v>10.24321907370765</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>92.44056399480266</v>
       </c>
       <c r="P96" t="n">
-        <v>10.67953532683043</v>
+        <v>10.67953532683042</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01350800916389329</v>
+        <v>0.01350800916389261</v>
       </c>
       <c r="R96" t="n">
-        <v>0.254933541793546</v>
+        <v>0.2549335417935079</v>
       </c>
       <c r="S96" t="n">
-        <v>0.2954256392231716</v>
+        <v>0.2954256392231301</v>
       </c>
       <c r="T96" t="n">
-        <v>0.22839512340406</v>
+        <v>0.2283951234040255</v>
       </c>
       <c r="U96" t="n">
-        <v>0.2493709508933373</v>
+        <v>0.2493709508933372</v>
       </c>
       <c r="V96" t="n">
-        <v>0.03138878143561469</v>
+        <v>0.03138878143562064</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.007552900000007412</v>
+        <v>0.004100700000000401</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8375,10 +8375,10 @@
         <v>9.996999318558414</v>
       </c>
       <c r="G97" t="n">
-        <v>41.06801313924497</v>
+        <v>41.06801313924498</v>
       </c>
       <c r="H97" t="n">
-        <v>5.327515867769059</v>
+        <v>5.327515867769058</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>23.74070880037097</v>
       </c>
       <c r="P97" t="n">
-        <v>13.3284203492034</v>
+        <v>13.32842034920339</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01220015327273539</v>
+        <v>0.01220015327273566</v>
       </c>
       <c r="R97" t="n">
-        <v>0.08786942988606139</v>
+        <v>0.08786942988606129</v>
       </c>
       <c r="S97" t="n">
-        <v>0.07372612599553058</v>
+        <v>0.07372612599553285</v>
       </c>
       <c r="T97" t="n">
-        <v>0.1114879581755847</v>
+        <v>0.1114879581755882</v>
       </c>
       <c r="U97" t="n">
-        <v>0.2359937124929962</v>
+        <v>0.235993712492996</v>
       </c>
       <c r="V97" t="n">
-        <v>0.02821500350577</v>
+        <v>0.02821500350576842</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00202939999999785</v>
+        <v>0.001816299999999771</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.1276028446928074</v>
       </c>
       <c r="F98" t="n">
-        <v>10.00320409290079</v>
+        <v>10.0032040929008</v>
       </c>
       <c r="G98" t="n">
         <v>38.74799163788681</v>
       </c>
       <c r="H98" t="n">
-        <v>13.64627833601885</v>
+        <v>13.64627833601886</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8481,28 +8481,28 @@
         <v>23.48744640074011</v>
       </c>
       <c r="O98" t="n">
-        <v>29.57993367341801</v>
+        <v>29.579933673418</v>
       </c>
       <c r="P98" t="n">
-        <v>23.1791948830348</v>
+        <v>23.17919488303481</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01467839756377553</v>
+        <v>0.01467839756377522</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1422660982546011</v>
+        <v>0.1422660982545974</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1807997902211685</v>
+        <v>0.180799790221159</v>
       </c>
       <c r="T98" t="n">
-        <v>0.1882612294909365</v>
+        <v>0.1882612294909268</v>
       </c>
       <c r="U98" t="n">
         <v>0.2418970288884255</v>
       </c>
       <c r="V98" t="n">
-        <v>0.07464083315522055</v>
+        <v>0.07464083315522684</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002488200000001939</v>
+        <v>0.001849099999999382</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>0.03173510856486372</v>
       </c>
       <c r="F99" t="n">
-        <v>10.17856800182899</v>
+        <v>10.178568001829</v>
       </c>
       <c r="G99" t="n">
         <v>150.5917769706776</v>
       </c>
       <c r="H99" t="n">
-        <v>14.95293187686456</v>
+        <v>14.95293187686457</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8569,22 +8569,22 @@
         <v>12.83936273839521</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.00736877584688452</v>
+        <v>0.007368775846884319</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1136482659851861</v>
+        <v>0.1136482659851356</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1127580629040977</v>
+        <v>0.1127580629040484</v>
       </c>
       <c r="T99" t="n">
-        <v>0.174763391367305</v>
+        <v>0.1747633913672271</v>
       </c>
       <c r="U99" t="n">
-        <v>0.2447587752363295</v>
+        <v>0.2447587752363296</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1114430705819626</v>
+        <v>0.1114430705819651</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005182099999998968</v>
+        <v>0.004374599999998452</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8618,13 +8618,13 @@
         <v>0.1099805317199187</v>
       </c>
       <c r="F100" t="n">
-        <v>9.772035147748953</v>
+        <v>9.772035147748952</v>
       </c>
       <c r="G100" t="n">
         <v>132.0048032262298</v>
       </c>
       <c r="H100" t="n">
-        <v>9.467363019481946</v>
+        <v>9.467363019481942</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>92.65687177900487</v>
       </c>
       <c r="P100" t="n">
-        <v>9.641685008416957</v>
+        <v>9.641685008416955</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01283141928272354</v>
+        <v>0.01283141928271728</v>
       </c>
       <c r="R100" t="n">
-        <v>0.2391232698950745</v>
+        <v>0.2391232698948614</v>
       </c>
       <c r="S100" t="n">
-        <v>0.2613256628011063</v>
+        <v>0.2613256628008764</v>
       </c>
       <c r="T100" t="n">
-        <v>0.2143021262058701</v>
+        <v>0.214302126205679</v>
       </c>
       <c r="U100" t="n">
-        <v>0.2738499480322043</v>
+        <v>0.2738499480322046</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1437915658086437</v>
+        <v>0.1437915658086449</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.005620300000003908</v>
+        <v>0.006124199999998581</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8700,13 +8700,13 @@
         <v>359.9524355607363</v>
       </c>
       <c r="F101" t="n">
-        <v>10.07894977978518</v>
+        <v>10.07894977978517</v>
       </c>
       <c r="G101" t="n">
         <v>120.9737347114673</v>
       </c>
       <c r="H101" t="n">
-        <v>8.965405780343437</v>
+        <v>8.965405780343433</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8733,22 +8733,22 @@
         <v>10.56347315668146</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01363672470224454</v>
+        <v>0.01363672470224442</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1952708826266651</v>
+        <v>0.1952708826266568</v>
       </c>
       <c r="S101" t="n">
-        <v>0.2308232879180518</v>
+        <v>0.2308232879180432</v>
       </c>
       <c r="T101" t="n">
-        <v>0.1295643087978457</v>
+        <v>0.12956430879784</v>
       </c>
       <c r="U101" t="n">
-        <v>0.2432353676970118</v>
+        <v>0.2432353676970119</v>
       </c>
       <c r="V101" t="n">
-        <v>0.05150785028037745</v>
+        <v>0.05150785028037532</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.007031699999998864</v>
+        <v>0.003894700000000029</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
